--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1578260.407794543</v>
+        <v>-1580836.729275784</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>162.6828958164088</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>225.7512692123564</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>103.1198110522129</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>95.44336989065454</v>
       </c>
       <c r="X4" t="n">
-        <v>16.06637765941531</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>215.8536526006921</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>188.605944229153</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>73.97454661313839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>61.18128931386767</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>299.3022824931949</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>307.9492910885701</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>41.06209984898716</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>25.42907173311844</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.795251606867604</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016417</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>212.2057120211336</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.58181139165723</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>251.7801198313588</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.5844008505283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.59690177051078</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.32784210538719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.228861054224361</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,10 +2959,10 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.363819949361</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008949</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D2" t="n">
-        <v>909.3697179459625</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>523.5814653477182</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810557</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013482</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>633.1794194430335</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>633.1794194430335</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>633.1794194430335</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>485.2663258606403</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>338.37637836273</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>170.6735417374489</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>162.9195607661779</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X4" t="n">
-        <v>814.8278842732732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>814.8278842732732</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1879.829578210439</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1510.867061270028</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1152.601362663277</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1152.601362663277</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>741.6154578736698</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>326.5430077186663</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3135.094766832249</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3135.094766832249</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2782.326111562134</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2266.429418274561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.619250712236</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C7" t="n">
-        <v>359.619250712236</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="W7" t="n">
-        <v>769.257266440493</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="X7" t="n">
-        <v>541.2677155424757</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.2677155424757</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1980.946859214235</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>1966.893243807961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2367.546699278356</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0174987734496</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>373.0174987734496</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>373.0174987734496</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>373.0174987734496</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>205.3146621481685</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013565</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W10" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="X10" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>913.2907898187007</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793926</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033213</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>734.6461798835927</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>565.7099969556858</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832654</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T13" t="n">
-        <v>1982.71334142582</v>
+        <v>1977.4610805105</v>
       </c>
       <c r="U13" t="n">
-        <v>1693.638114770018</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V13" t="n">
-        <v>1438.953626564131</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W13" t="n">
-        <v>1149.53645652717</v>
+        <v>1144.28419561185</v>
       </c>
       <c r="X13" t="n">
-        <v>921.5469056291529</v>
+        <v>916.2946447138324</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.7543264856228</v>
+        <v>916.2946447138324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>409.1360811687904</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>904.461687384549</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167374</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721981</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,7 +5774,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314351</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
         <v>2092.798483612594</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2412.016718155502</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.161883810406</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2009.560418833348</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1720.485192177545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192596</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784064</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504995</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381638</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,13 +6309,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1022.872235754091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>853.936052826184</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>703.8194134138482</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>555.9063198314551</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>409.0163723335447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>241.8202730484247</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>100.1084418906227</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,16 +6598,16 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6835,31 +6835,31 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7315,28 +7315,28 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,10 +7357,10 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7831,22 +7831,22 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>220.0509458470718</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>128.9317724083265</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>41.63520386210791</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>32.13019070313388</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.0796284459365</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8202214113448</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.199738306154643</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.83923663127402</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3575234924692268</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.000252501566507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.7783449396109</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.2568112467076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>75.03697526434117</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1285894.549672056</v>
+        <v>1285894.549672055</v>
       </c>
     </row>
     <row r="11">
@@ -26314,10 +26314,10 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.654945751</v>
@@ -26347,7 +26347,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
+        <v>19427.71799363174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85055.02793551187</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>19427.71799363176</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>85055.02793551196</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>19427.71799363172</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020469</v>
+        <v>3456.426522020656</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687975</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687963</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687962</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687962</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687969</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="K4" t="n">
         <v>23427.49926997314</v>
@@ -26448,16 +26448,16 @@
         <v>23427.49926997312</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997317</v>
       </c>
       <c r="N4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
+        <v>23427.49926997319</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997314</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324090.26896548</v>
+        <v>-1324485.089906633</v>
       </c>
       <c r="C6" t="n">
-        <v>-57848.37493919616</v>
+        <v>-57848.37493919628</v>
       </c>
       <c r="D6" t="n">
-        <v>-57848.37493919618</v>
+        <v>-57848.37493919628</v>
       </c>
       <c r="E6" t="n">
-        <v>-300720.9766923914</v>
+        <v>-300755.7146178263</v>
       </c>
       <c r="F6" t="n">
-        <v>24691.48511496431</v>
+        <v>24656.74718952859</v>
       </c>
       <c r="G6" t="n">
-        <v>24691.48511496435</v>
+        <v>24656.74718952845</v>
       </c>
       <c r="H6" t="n">
-        <v>24691.48511496429</v>
+        <v>24656.74718952853</v>
       </c>
       <c r="I6" t="n">
-        <v>24691.48511496428</v>
+        <v>24656.74718952863</v>
       </c>
       <c r="J6" t="n">
-        <v>-192839.7172823131</v>
+        <v>-192874.4552077488</v>
       </c>
       <c r="K6" t="n">
+        <v>-2337.023391270675</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17090.69460236114</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-67964.3333331508</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17090.69460236109</v>
+      </c>
+      <c r="O6" t="n">
+        <v>17090.69460236099</v>
+      </c>
+      <c r="P6" t="n">
         <v>-2337.023391270661</v>
-      </c>
-      <c r="L6" t="n">
-        <v>17090.69460236117</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-67964.33333315088</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17090.69460236112</v>
-      </c>
-      <c r="O6" t="n">
-        <v>17090.69460236109</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-2337.023391270632</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.394884621840902e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.22222970670424</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>209.6432777296218</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>78.75411178662839</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>62.38922772974894</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>115.7944787183035</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>225.3417090227233</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>65.97060927781263</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>61.78180958989896</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>103.6929150653336</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>261.0939266034725</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28290,13 +28290,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>481.4297026814666</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>466.5925882502517</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>305.1876769472519</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>301.6445156724546</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>501.1621040024322</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>675.4898072958217</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34132,10 +34132,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34211,25 +34211,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>339.2956687594483</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>332.6181808359215</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998907</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>167.3462379728929</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>159.0482712280102</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>128.5512458942249</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>369.8203919190989</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>533.3557733738033</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37780,10 +37780,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
